--- a/timeline/4M Project Timeline.xlsx
+++ b/timeline/4M Project Timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Programming\Workspace\C#\Backupper\timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ZPR\Backupper\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Timeline'!$4:$7</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>4 week project timeline</t>
   </si>
@@ -55,11 +55,23 @@
   <si>
     <t>Task:</t>
   </si>
+  <si>
+    <t>Praxe</t>
+  </si>
+  <si>
+    <t>Všichni</t>
+  </si>
+  <si>
+    <t>Dokončeno</t>
+  </si>
+  <si>
+    <t>Run - testy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
@@ -116,7 +128,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +165,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,6 +229,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -239,7 +268,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -321,19 +350,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Day of week" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Month" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Date" xfId="6"/>
+    <cellStyle name="Day of week" xfId="8"/>
+    <cellStyle name="Month" xfId="9"/>
     <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Weekday" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Status" xfId="10"/>
+    <cellStyle name="Weekday" xfId="7"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -565,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -573,7 +611,7 @@
   <dimension ref="B1:AF28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,21 +1070,25 @@
       <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+      <c r="B8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="5"/>
@@ -1061,10 +1103,14 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
@@ -1079,8 +1125,10 @@
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="29"/>
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
       <c r="U9" s="5"/>
@@ -1704,7 +1752,9 @@
       <c r="AE28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="X4:AD4"/>
@@ -1719,15 +1769,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Timeline in this worksheet. Enter Start Date in cell C2 and other details starting in cell B4" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:AE1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Days of the week are automatically updated in this row. Enter assigned to person's name in cells below and their tasks in the row at right of their name" sqref="B7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="AE4:AE7" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Week number is in cell blocks C to I, J to P, Q to W and X to AD in this row" sqref="B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated in this row" sqref="B5" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weekdays are automatically updated in this row" sqref="B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Timeline in this worksheet. Enter Start Date in cell C2 and other details starting in cell B4" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:AE1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Days of the week are automatically updated in this row. Enter assigned to person's name in cells below and their tasks in the row at right of their name" sqref="B7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="AE4:AE7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Week number is in cell blocks C to I, J to P, Q to W and X to AD in this row" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated in this row" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weekdays are automatically updated in this row" sqref="B6"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timeline/4M Project Timeline.xlsx
+++ b/timeline/4M Project Timeline.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ZPR\Backupper\timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Programming\Workspace\C#\Backupper\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478336A-6985-4CBB-A7A3-607259AEB845}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Timeline'!$4:$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>4 week project timeline</t>
   </si>
@@ -65,18 +66,57 @@
     <t>Dokončeno</t>
   </si>
   <si>
-    <t>Run - testy</t>
+    <t>Run testy</t>
+  </si>
+  <si>
+    <t>Kompat. Testy</t>
+  </si>
+  <si>
+    <t>Debugování</t>
+  </si>
+  <si>
+    <t>Dokumentace kódu</t>
+  </si>
+  <si>
+    <t>Lukáš</t>
+  </si>
+  <si>
+    <t>Vydání</t>
+  </si>
+  <si>
+    <t>Dokumentace wiki</t>
+  </si>
+  <si>
+    <t>Dokumentace end pointů</t>
+  </si>
+  <si>
+    <t>Dokumentace admina</t>
+  </si>
+  <si>
+    <t>Dokumentace záloh</t>
+  </si>
+  <si>
+    <t>Uzavření všech issue</t>
+  </si>
+  <si>
+    <t>Růža</t>
+  </si>
+  <si>
+    <t>Rambo</t>
+  </si>
+  <si>
+    <t>První zapnutí serveru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -127,8 +167,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +215,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -240,6 +306,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -268,7 +389,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -332,6 +453,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -353,25 +477,61 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6"/>
-    <cellStyle name="Day of week" xfId="8"/>
-    <cellStyle name="Month" xfId="9"/>
-    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="10"/>
-    <cellStyle name="Weekday" xfId="7"/>
+    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Day of week" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Month" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Status" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Weekday" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -603,15 +763,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,91 +785,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="2:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="26">
         <v>43227</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="24" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="21" t="s">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="AF4" t="s">
@@ -830,7 +990,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE5" s="21"/>
+      <c r="AE5" s="22"/>
       <c r="AF5" t="s">
         <v>6</v>
       </c>
@@ -949,7 +1109,7 @@
         <f t="shared" si="1"/>
         <v>sun</v>
       </c>
-      <c r="AE6" s="21"/>
+      <c r="AE6" s="22"/>
     </row>
     <row r="7" spans="2:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1067,28 +1227,28 @@
         <f t="shared" ref="AD7" si="5">AC7+1</f>
         <v>43254</v>
       </c>
-      <c r="AE7" s="22"/>
-    </row>
-    <row r="8" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="23"/>
+    </row>
+    <row r="8" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="5"/>
@@ -1103,7 +1263,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="28" t="s">
+      <c r="AE8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1125,14 +1285,14 @@
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="6"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="5"/>
@@ -1144,7 +1304,9 @@
       <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
@@ -1162,10 +1324,12 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="5"/>
+      <c r="T10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="6"/>
@@ -1176,7 +1340,9 @@
       <c r="AE10" s="20"/>
     </row>
     <row r="11" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -1191,15 +1357,17 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="5"/>
+      <c r="Q11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="6"/>
@@ -1208,7 +1376,9 @@
       <c r="AE11" s="20"/>
     </row>
     <row r="12" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
@@ -1223,24 +1393,28 @@
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
+      <c r="Q12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
       <c r="AE12" s="20"/>
     </row>
     <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
@@ -1255,24 +1429,28 @@
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="6"/>
+      <c r="Q13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
       <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
@@ -1287,24 +1465,28 @@
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="6"/>
+      <c r="Q14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
       <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
@@ -1319,24 +1501,28 @@
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
+      <c r="Q15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
       <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
@@ -1351,24 +1537,28 @@
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="6"/>
+      <c r="Q16" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="20"/>
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
@@ -1391,7 +1581,9 @@
       <c r="V17" s="6"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="5"/>
+      <c r="Y17" s="32" t="s">
+        <v>10</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="6"/>
@@ -1400,7 +1592,9 @@
       <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
@@ -1415,9 +1609,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="5"/>
+      <c r="Q18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
       <c r="T18" s="6"/>
       <c r="U18" s="5"/>
       <c r="V18" s="6"/>
@@ -1431,7 +1627,7 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="20"/>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -1456,15 +1652,17 @@
       <c r="W19" s="5"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="6"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="36"/>
       <c r="AE19" s="20"/>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
@@ -1488,11 +1686,13 @@
       <c r="W20" s="5"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="6"/>
+      <c r="Z20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="42"/>
       <c r="AE20" s="20"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,11 +1720,11 @@
       <c r="W21" s="5"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="6"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="38"/>
       <c r="AE21" s="20"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,9 +1952,17 @@
       <c r="AE28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Q12:AD12"/>
+    <mergeCell ref="Q13:AD13"/>
+    <mergeCell ref="Q14:AD14"/>
+    <mergeCell ref="Q15:AD15"/>
+    <mergeCell ref="Q16:AD16"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="Q11:Y11"/>
     <mergeCell ref="C8:P8"/>
-    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="X4:AD4"/>
@@ -1762,22 +1970,23 @@
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="Q9:V9"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:AD7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Timeline in this worksheet. Enter Start Date in cell C2 and other details starting in cell B4" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="B2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:AE1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Days of the week are automatically updated in this row. Enter assigned to person's name in cells below and their tasks in the row at right of their name" sqref="B7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="AE4:AE7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Week number is in cell blocks C to I, J to P, Q to W and X to AD in this row" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated in this row" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weekdays are automatically updated in this row" sqref="B6"/>
+  <dataValidations disablePrompts="1" count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Timeline in this worksheet. Enter Start Date in cell C2 and other details starting in cell B4" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:AE1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Days of the week are automatically updated in this row. Enter assigned to person's name in cells below and their tasks in the row at right of their name" sqref="B7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="AE4:AE7" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Week number is in cell blocks C to I, J to P, Q to W and X to AD in this row" sqref="B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated in this row" sqref="B5" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weekdays are automatically updated in this row" sqref="B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timeline/4M Project Timeline.xlsx
+++ b/timeline/4M Project Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Programming\Workspace\C#\Backupper\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478336A-6985-4CBB-A7A3-607259AEB845}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE577EA-C5AA-418B-8482-AD97F26D9429}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>4 week project timeline</t>
   </si>
@@ -456,6 +456,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -473,51 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -771,7 +771,7 @@
   <dimension ref="B1:AF28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,91 +785,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
     </row>
     <row r="2" spans="2:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="41">
         <v>43227</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="27" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="25" t="s">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="22" t="s">
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="AF4" t="s">
@@ -990,7 +990,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE5" s="22"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1109,7 @@
         <f t="shared" si="1"/>
         <v>sun</v>
       </c>
-      <c r="AE6" s="22"/>
+      <c r="AE6" s="37"/>
     </row>
     <row r="7" spans="2:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1227,28 +1227,28 @@
         <f t="shared" ref="AD7" si="5">AC7+1</f>
         <v>43254</v>
       </c>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="38"/>
     </row>
     <row r="8" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="5"/>
@@ -1285,14 +1285,14 @@
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="5"/>
@@ -1301,7 +1301,9 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="20"/>
+      <c r="AE9" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
@@ -1324,12 +1326,12 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="6"/>
@@ -1337,7 +1339,9 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="20"/>
+      <c r="AE10" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
@@ -1357,23 +1361,25 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="20"/>
+      <c r="AE11" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
@@ -1393,23 +1399,25 @@
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="20"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
@@ -1429,23 +1437,25 @@
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="20"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
@@ -1465,23 +1475,25 @@
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="20"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
@@ -1501,23 +1513,25 @@
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="20"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
@@ -1537,23 +1551,25 @@
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="20"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
@@ -1581,7 +1597,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="32" t="s">
+      <c r="Y17" s="22" t="s">
         <v>10</v>
       </c>
       <c r="Z17" s="6"/>
@@ -1589,7 +1605,9 @@
       <c r="AB17" s="6"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="20"/>
+      <c r="AE17" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
@@ -1609,11 +1627,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
       <c r="T18" s="6"/>
       <c r="U18" s="5"/>
       <c r="V18" s="6"/>
@@ -1652,11 +1670,11 @@
       <c r="W19" s="5"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="36"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="23"/>
       <c r="AE19" s="20"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1686,14 +1704,16 @@
       <c r="W20" s="5"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="40" t="s">
+      <c r="Z20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="20"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
@@ -1720,11 +1740,11 @@
       <c r="W21" s="5"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="38"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="25"/>
       <c r="AE21" s="20"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,13 +1973,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Q12:AD12"/>
-    <mergeCell ref="Q13:AD13"/>
-    <mergeCell ref="Q14:AD14"/>
-    <mergeCell ref="Q15:AD15"/>
-    <mergeCell ref="Q16:AD16"/>
-    <mergeCell ref="Q18:S18"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="Q11:Y11"/>
     <mergeCell ref="C8:P8"/>
@@ -1971,6 +1984,13 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Q12:AD12"/>
+    <mergeCell ref="Q13:AD13"/>
+    <mergeCell ref="Q14:AD14"/>
+    <mergeCell ref="Q15:AD15"/>
+    <mergeCell ref="Q16:AD16"/>
+    <mergeCell ref="Q18:S18"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:AD7">
     <cfRule type="expression" dxfId="0" priority="1">
